--- a/loveyou.xlsx
+++ b/loveyou.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1030">
   <si>
     <t>인간이 만든 위대한 속임수 식품첨가물 1</t>
   </si>
@@ -266,6 +266,27 @@
     <t>8974421496 9788974421496</t>
   </si>
   <si>
+    <t>수학적 경험 하</t>
+  </si>
+  <si>
+    <t>8972822477 9788972822479</t>
+  </si>
+  <si>
+    <t>창의적인 사람들의 7가지 반란</t>
+  </si>
+  <si>
+    <t>최창호</t>
+  </si>
+  <si>
+    <t>학지사</t>
+  </si>
+  <si>
+    <t>8975486192 9788975486197</t>
+  </si>
+  <si>
+    <t>9900</t>
+  </si>
+  <si>
     <t>무너진 평생직장 프리랜서로 살아남기</t>
   </si>
   <si>
@@ -551,6 +572,36 @@
     <t>0582017122 9780582017122</t>
   </si>
   <si>
+    <t>Analytical and Experimental Fracture Mechanics (International Conference Proceedings)</t>
+  </si>
+  <si>
+    <t>G. C. Sih|M. Mirabile</t>
+  </si>
+  <si>
+    <t>KluwerAcademicPublishers</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>9028608907 9789028608900</t>
+  </si>
+  <si>
+    <t>592300</t>
+  </si>
+  <si>
+    <t>Engineering Mechanics: Statics (2nd Edition/ Hardcover)</t>
+  </si>
+  <si>
+    <t>Kiusalaas|Jaan|Andrew Pytel</t>
+  </si>
+  <si>
+    <t>Thomson</t>
+  </si>
+  <si>
+    <t>0534957412 9780534957414</t>
+  </si>
+  <si>
     <t>Engineering Mechanics, 3/E : Statics 584</t>
   </si>
   <si>
@@ -701,6 +752,27 @@
     <t>33000</t>
   </si>
   <si>
+    <t>Engineering Design Process</t>
+  </si>
+  <si>
+    <t>Yousef Haik</t>
+  </si>
+  <si>
+    <t>Brooks/ColePublishingCompany</t>
+  </si>
+  <si>
+    <t>053438014X 9780534380144</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>HAIK</t>
+  </si>
+  <si>
+    <t>053438014X 6100534380143</t>
+  </si>
+  <si>
     <t>ENGINEERING DESIGN METHODS (Strategies for Product Design)</t>
   </si>
   <si>
@@ -767,6 +839,18 @@
     <t>0444825142 9780444825148</t>
   </si>
   <si>
+    <t>Computational Partial Differential Equations: Numerical Methods and Diffpack Programming (Numerical Methods and Diffpack Programming)</t>
+  </si>
+  <si>
+    <t>Langtangen|Hans Petter</t>
+  </si>
+  <si>
+    <t>354043416X 9783540434160</t>
+  </si>
+  <si>
+    <t>142876</t>
+  </si>
+  <si>
     <t>Structural mechanics in reactor technology</t>
   </si>
   <si>
@@ -815,6 +899,36 @@
     <t>1560919035 9781560919032</t>
   </si>
   <si>
+    <t>ASM Handbook (Metals Process Simulation #22B)</t>
+  </si>
+  <si>
+    <t>Furrer|David (Edt)</t>
+  </si>
+  <si>
+    <t>Asm</t>
+  </si>
+  <si>
+    <t>1615030050 9781615030057</t>
+  </si>
+  <si>
+    <t>420000</t>
+  </si>
+  <si>
+    <t>Meshless Method (MLPG) for domain &amp; BIE Discretizations</t>
+  </si>
+  <si>
+    <t>Atluri|Satya</t>
+  </si>
+  <si>
+    <t>TechScience</t>
+  </si>
+  <si>
+    <t>0965700186 9780965700184</t>
+  </si>
+  <si>
+    <t>225950</t>
+  </si>
+  <si>
     <t>Worldchanging (Paperback) (A User's Guide for the 21st Century)</t>
   </si>
   <si>
@@ -923,6 +1037,33 @@
     <t>8970740333 9788970740331</t>
   </si>
   <si>
+    <t>Complete Wiring</t>
+  </si>
+  <si>
+    <t>Sidey, Ken (EDT)|Stanley Works Inc. (COR)</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>0696217309 9780696217302</t>
+  </si>
+  <si>
+    <t>24370</t>
+  </si>
+  <si>
+    <t>실무 유한요소해석 입문 (VisualFEA 기초에서 실무)</t>
+  </si>
+  <si>
+    <t>이재영|안성율</t>
+  </si>
+  <si>
+    <t>사이텍이엔씨</t>
+  </si>
+  <si>
+    <t>8995425350 9788995425350</t>
+  </si>
+  <si>
     <t>Mems (Design And Fabrication)</t>
   </si>
   <si>
@@ -1034,9 +1175,6 @@
     <t>Meirovitch|Leonard</t>
   </si>
   <si>
-    <t>KluwerAcademicPublishers</t>
-  </si>
-  <si>
     <t>1980</t>
   </si>
   <si>
@@ -1109,6 +1247,27 @@
     <t>8988825934 9788988825938</t>
   </si>
   <si>
+    <t>일본 기술의 변천</t>
+  </si>
+  <si>
+    <t>테사 모리스 스즈키</t>
+  </si>
+  <si>
+    <t>한승</t>
+  </si>
+  <si>
+    <t>8986865165 9788986865165</t>
+  </si>
+  <si>
+    <t>맥킨지보고서</t>
+  </si>
+  <si>
+    <t>MCKINSEY</t>
+  </si>
+  <si>
+    <t>8974421275 9788974421274</t>
+  </si>
+  <si>
     <t>포철 같은 컴퓨터 회사를 가진다면</t>
   </si>
   <si>
@@ -1379,6 +1538,33 @@
     <t>161560</t>
   </si>
   <si>
+    <t>Atlas of Stress-Strain Curves (Hardcover / 2nd Ed.)</t>
+  </si>
+  <si>
+    <t>Howard E. Boyer</t>
+  </si>
+  <si>
+    <t>AsmIntl</t>
+  </si>
+  <si>
+    <t>087170739X 9780871707390</t>
+  </si>
+  <si>
+    <t>460940</t>
+  </si>
+  <si>
+    <t>Atlas of Stress-Strain Curves, 2/e</t>
+  </si>
+  <si>
+    <t>Not Available (NA)</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>290160</t>
+  </si>
+  <si>
     <t>Dynamics of structures</t>
   </si>
   <si>
@@ -1415,6 +1601,18 @@
     <t>0201515024 9780201515022</t>
   </si>
   <si>
+    <t>2000 Solved Problems in Numerical Analysis(S.O.S.)</t>
+  </si>
+  <si>
+    <t>Scheid|F.</t>
+  </si>
+  <si>
+    <t>0071006265 6100071006261</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
     <t>Problem Book in Relativity and Gravitation</t>
   </si>
   <si>
@@ -1433,6 +1631,15 @@
     <t>121081</t>
   </si>
   <si>
+    <t>LIGHTMAN|A.P.</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>069108162X 6100691081624</t>
+  </si>
+  <si>
     <t>Numerical Analysis</t>
   </si>
   <si>
@@ -1478,6 +1685,18 @@
     <t>130768</t>
   </si>
   <si>
+    <t>π-ray science</t>
+  </si>
+  <si>
+    <t>Hung Kuk Oh</t>
+  </si>
+  <si>
+    <t>TheAjouUniv.Press</t>
+  </si>
+  <si>
+    <t>8986161109 9788986161106</t>
+  </si>
+  <si>
     <t>Dynamics: The Geometry of Behavior (2nd Edition/ Paperback)</t>
   </si>
   <si>
@@ -1529,6 +1748,39 @@
     <t>1853125350 9781853125355</t>
   </si>
   <si>
+    <t>Dynamic Behavior of Materials</t>
+  </si>
+  <si>
+    <t>Marc Andre Meyers</t>
+  </si>
+  <si>
+    <t>Wiley-Interscience</t>
+  </si>
+  <si>
+    <t>047158262X 9780471582625</t>
+  </si>
+  <si>
+    <t>382617</t>
+  </si>
+  <si>
+    <t>Meyers|M.A.</t>
+  </si>
+  <si>
+    <t>047158262X 6100471582624</t>
+  </si>
+  <si>
+    <t>Dynamics of Thin Walled Elastic Bodies</t>
+  </si>
+  <si>
+    <t>J. D. Kaplunov|L. Yu Kossovitch|E. V. Nolde</t>
+  </si>
+  <si>
+    <t>0123975905 9780123975904</t>
+  </si>
+  <si>
+    <t>339028</t>
+  </si>
+  <si>
     <t>Continuum Mechanics</t>
   </si>
   <si>
@@ -1607,15 +1859,9 @@
     <t>박영태</t>
   </si>
   <si>
-    <t>학지사</t>
-  </si>
-  <si>
     <t>8975487830 9788975487835</t>
   </si>
   <si>
-    <t>12000</t>
-  </si>
-  <si>
     <t>ATTACHMENT의 이론과 실제</t>
   </si>
   <si>
@@ -1706,6 +1952,18 @@
     <t>152250</t>
   </si>
   <si>
+    <t>Dislocation Based Fracture Mechanics H/C</t>
+  </si>
+  <si>
+    <t>Weertman|J.</t>
+  </si>
+  <si>
+    <t>WorldScientific</t>
+  </si>
+  <si>
+    <t>9810226209 6109810226205</t>
+  </si>
+  <si>
     <t>Elementary Engineering Fracture Mechanics</t>
   </si>
   <si>
@@ -1724,6 +1982,39 @@
     <t>88430</t>
   </si>
   <si>
+    <t>Mechanics of Composite Materials</t>
+  </si>
+  <si>
+    <t>Robert M. Jones</t>
+  </si>
+  <si>
+    <t>Ingram(원서공급사)</t>
+  </si>
+  <si>
+    <t>156032712X 9781560327127</t>
+  </si>
+  <si>
+    <t>223940</t>
+  </si>
+  <si>
+    <t>Metallic Biomaterial Interfaces (Hardcover)</t>
+  </si>
+  <si>
+    <t>Breme, Jurgen (EDT)|Kirkpatrick, C. James (EDT)|Thull, Roger (EDT)</t>
+  </si>
+  <si>
+    <t>3527318607 9783527318605</t>
+  </si>
+  <si>
+    <t>191800</t>
+  </si>
+  <si>
+    <t>Metallic Biomaterial Interfaces</t>
+  </si>
+  <si>
+    <t>334070</t>
+  </si>
+  <si>
     <t>Quantum Leaps in the Wrong Direction</t>
   </si>
   <si>
@@ -1778,6 +2069,21 @@
     <t>185030</t>
   </si>
   <si>
+    <t>Computerized Buckling Analysis of Shells</t>
+  </si>
+  <si>
+    <t>by D. Bushnell</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>9024730996 9789024730995</t>
+  </si>
+  <si>
+    <t>847569</t>
+  </si>
+  <si>
     <t>러시아가 움직이고 있다</t>
   </si>
   <si>
@@ -2078,12 +2384,36 @@
     <t>창의적 공학설계</t>
   </si>
   <si>
-    <t>Yousef Haik</t>
-  </si>
-  <si>
     <t>8958320354 9788958320357</t>
   </si>
   <si>
+    <t>Discoveres</t>
+  </si>
+  <si>
+    <t>BOORSTIN|D.</t>
+  </si>
+  <si>
+    <t>RandomHouse</t>
+  </si>
+  <si>
+    <t>0394402294 9780394402291</t>
+  </si>
+  <si>
+    <t>64800</t>
+  </si>
+  <si>
+    <t>생체조직공학 개념과 응용</t>
+  </si>
+  <si>
+    <t>유지</t>
+  </si>
+  <si>
+    <t>고려의학</t>
+  </si>
+  <si>
+    <t>8970431594 9788970431598</t>
+  </si>
+  <si>
     <t>하모니시대</t>
   </si>
   <si>
@@ -2186,6 +2516,21 @@
     <t>114600</t>
   </si>
   <si>
+    <t>창조성은 만들어진다</t>
+  </si>
+  <si>
+    <t>STEVEN H.KIM</t>
+  </si>
+  <si>
+    <t>백산서당</t>
+  </si>
+  <si>
+    <t>8973271202 9788973271207</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
     <t>Scientific Research in Education</t>
   </si>
   <si>
@@ -2213,9 +2558,6 @@
     <t>0385052758 9780385052757</t>
   </si>
   <si>
-    <t>24370</t>
-  </si>
-  <si>
     <t>시계구조의 이해 및 분해ㆍ조립</t>
   </si>
   <si>
@@ -2303,6 +2645,18 @@
     <t>138640</t>
   </si>
   <si>
+    <t>HANDBOOK OF NANOMEDICINE (Hardcover)</t>
+  </si>
+  <si>
+    <t>Jain|Kewal K.</t>
+  </si>
+  <si>
+    <t>1603273182 9781603273183</t>
+  </si>
+  <si>
+    <t>157250</t>
+  </si>
+  <si>
     <t>Problems of fracture mechanics and fatigue alk. paper (A Solution Guide)</t>
   </si>
   <si>
@@ -2342,21 +2696,6 @@
     <t>129640</t>
   </si>
   <si>
-    <t>Computerized Buckling Analysis of Shells</t>
-  </si>
-  <si>
-    <t>by D. Bushnell</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>9024730996 9789024730995</t>
-  </si>
-  <si>
-    <t>847569</t>
-  </si>
-  <si>
     <t>Numerical mathematics and computing</t>
   </si>
   <si>
@@ -2381,6 +2720,30 @@
     <t>24216</t>
   </si>
   <si>
+    <t>The Six Sigma Handbook (A Complete Guide for Greenbelts,Blackbelts,and Managers at All Levels)</t>
+  </si>
+  <si>
+    <t>Thomas Pyzdek</t>
+  </si>
+  <si>
+    <t>0071410155 9780071410151</t>
+  </si>
+  <si>
+    <t>109890</t>
+  </si>
+  <si>
+    <t>Mathematical Physiology</t>
+  </si>
+  <si>
+    <t>Keener, James P.|Sneyd, James</t>
+  </si>
+  <si>
+    <t>0387983813 9780387983813</t>
+  </si>
+  <si>
+    <t>162249</t>
+  </si>
+  <si>
     <t>Advanced topics in computational partial differential equations softcoveracid-free p (Numerical Methods and Diffpack Programming)</t>
   </si>
   <si>
@@ -2393,6 +2756,18 @@
     <t>158370</t>
   </si>
   <si>
+    <t>Joining of advanced materials</t>
+  </si>
+  <si>
+    <t>Robert W. Messler|JR</t>
+  </si>
+  <si>
+    <t>Butterworth-Heinemann</t>
+  </si>
+  <si>
+    <t>0750690089 9780750690089</t>
+  </si>
+  <si>
     <t>First Course in Continuum Mechanics, 3/e (S/C)</t>
   </si>
   <si>
@@ -2465,6 +2840,30 @@
     <t>0471502847 9780471502845</t>
   </si>
   <si>
+    <t>Solid Mechanics Research for Quantitative Non-Destructive Evaluation (Hardcover) (Proceedings of the Onr Symposium on Solid Mechanics Research for Qnde, Northwe)</t>
+  </si>
+  <si>
+    <t>Achenbach, J. D.|Rajapakse, Y. (EDT)</t>
+  </si>
+  <si>
+    <t>9024734282 9789024734283</t>
+  </si>
+  <si>
+    <t>397620</t>
+  </si>
+  <si>
+    <t>Handbook of Thin Plate Buckling and Postbuckling</t>
+  </si>
+  <si>
+    <t>Douglas Coffin|Frederick Bloom|Douglas W. Coffin</t>
+  </si>
+  <si>
+    <t>1584882220 9781584882220</t>
+  </si>
+  <si>
+    <t>275900</t>
+  </si>
+  <si>
     <t>Numerical Analysis for Applied Mathematics,Science,and Engineering</t>
   </si>
   <si>
@@ -2510,6 +2909,18 @@
     <t>356160</t>
   </si>
   <si>
+    <t>Computational Mechanics - from Concepts to Computations (Proceedings of the Asian-pacific Conference, Sydney, 3-6 August 1993, 2 Volumes #2)</t>
+  </si>
+  <si>
+    <t>Valliappan|S.</t>
+  </si>
+  <si>
+    <t>9054103353 9789054103356</t>
+  </si>
+  <si>
+    <t>396000</t>
+  </si>
+  <si>
     <t>Computational Mechanics from Concepts (#1)</t>
   </si>
   <si>
@@ -2561,9 +2972,6 @@
     <t>Webster|John G. (EDT)</t>
   </si>
   <si>
-    <t>Wiley-Interscience</t>
-  </si>
-  <si>
     <t>0470040661 9780470040669</t>
   </si>
   <si>
@@ -2601,6 +3009,21 @@
   </si>
   <si>
     <t>8978801064 9788978801065</t>
+  </si>
+  <si>
+    <t>圖解TRIZ 革命的技術開發の技法</t>
+  </si>
+  <si>
+    <t>三菱總硏</t>
+  </si>
+  <si>
+    <t>日本實業出版社</t>
+  </si>
+  <si>
+    <t>4534029527 9784534029522</t>
+  </si>
+  <si>
+    <t>32400</t>
   </si>
   <si>
     <t>홍장표|송철기</t>
@@ -2723,16 +3146,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K259"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2759,9 +3180,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A2"/>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -2788,9 +3207,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A3"/>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -2817,9 +3234,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A4"/>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2846,9 +3261,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A5"/>
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -2875,9 +3288,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A6"/>
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -2904,9 +3315,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A7"/>
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -2933,9 +3342,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A8"/>
       <c r="B8" t="s">
         <v>41</v>
       </c>
@@ -2962,9 +3369,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A9"/>
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -2991,9 +3396,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A10"/>
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -3020,9 +3423,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A11"/>
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -3049,9 +3450,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A12"/>
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -3078,9 +3477,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A13"/>
       <c r="B13" t="s">
         <v>70</v>
       </c>
@@ -3107,9 +3504,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A14"/>
       <c r="B14" t="s">
         <v>75</v>
       </c>
@@ -3136,9 +3531,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A15"/>
       <c r="B15" t="s">
         <v>80</v>
       </c>
@@ -3165,96 +3558,88 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A16"/>
       <c r="B16" t="s">
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="K16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" t="s">
-        <v>90</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A18"/>
       <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A19"/>
       <c r="B19" t="s">
         <v>95</v>
       </c>
@@ -3262,272 +3647,254 @@
         <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>102</v>
       </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
         <v>103</v>
       </c>
-      <c r="K20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A22"/>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" t="s">
-        <v>115</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
         <v>118</v>
       </c>
-      <c r="K23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" t="s">
-        <v>121</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A25"/>
       <c r="B25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A26"/>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A27"/>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28" t="s">
         <v>137</v>
       </c>
-      <c r="K27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>138</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>139</v>
-      </c>
-      <c r="D28" t="s">
-        <v>140</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
         <v>141</v>
@@ -3542,456 +3909,424 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A29"/>
       <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
         <v>143</v>
       </c>
-      <c r="C29" t="s">
-        <v>144</v>
-      </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
         <v>147</v>
-      </c>
-      <c r="K29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" t="s">
-        <v>150</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A31"/>
       <c r="B31" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" t="s">
         <v>152</v>
-      </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" t="s">
-        <v>154</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
         <v>156</v>
       </c>
-      <c r="K31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>157</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="K32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A33"/>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A34"/>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A35"/>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="K35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A36"/>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="K36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A37"/>
       <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" t="s">
         <v>183</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" t="s">
-        <v>185</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
         <v>187</v>
       </c>
-      <c r="K37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>188</v>
-      </c>
-      <c r="C38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" t="s">
-        <v>190</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38" t="s">
+        <v>191</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
         <v>193</v>
       </c>
-      <c r="K38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>194</v>
-      </c>
-      <c r="C39" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" t="s">
-        <v>196</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="G39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A40"/>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>203</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A41"/>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A42"/>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A43"/>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A44"/>
       <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
         <v>219</v>
-      </c>
-      <c r="C44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" t="s">
-        <v>196</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
         <v>221</v>
@@ -4006,9 +4341,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A45"/>
       <c r="B45" t="s">
         <v>223</v>
       </c>
@@ -4020,82 +4353,76 @@
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" t="s">
         <v>226</v>
-      </c>
-      <c r="G45" t="s">
-        <v>227</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45" t="s">
+        <v>227</v>
+      </c>
+      <c r="K45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="s">
         <v>228</v>
       </c>
-      <c r="K45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>229</v>
       </c>
-      <c r="C46" t="s">
-        <v>230</v>
-      </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46" t="s">
+        <v>232</v>
+      </c>
+      <c r="K46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47" t="s">
         <v>233</v>
       </c>
-      <c r="K46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>234</v>
       </c>
-      <c r="C47" t="s">
-        <v>230</v>
-      </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A48"/>
       <c r="B48" t="s">
         <v>236</v>
       </c>
@@ -4103,11 +4430,11 @@
         <v>237</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
         <v>238</v>
@@ -4122,763 +4449,709 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A49"/>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A50"/>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D50" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H50"/>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A51"/>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="G51" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H51"/>
       <c r="I51"/>
       <c r="J51" t="s">
-        <v>6</v>
+        <v>250</v>
       </c>
       <c r="K51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A52"/>
       <c r="B52" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52" t="s">
-        <v>6</v>
+        <v>257</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A53"/>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="G53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="K53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A54"/>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="K54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A55"/>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G55" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="K55" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A56"/>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="K56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A57"/>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="K57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A58"/>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58" t="s">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="K58" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A59"/>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="K59" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A60"/>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A61"/>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A62"/>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D62" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="K62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A63"/>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="K63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A64"/>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="K64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A65"/>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H65"/>
       <c r="I65"/>
       <c r="J65" t="s">
+        <v>241</v>
+      </c>
+      <c r="K65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" t="s">
         <v>280</v>
       </c>
-      <c r="K65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
         <v>281</v>
-      </c>
-      <c r="C66" t="s">
-        <v>282</v>
-      </c>
-      <c r="D66" t="s">
-        <v>283</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H66"/>
       <c r="I66"/>
       <c r="J66" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="K66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A67"/>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
         <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H67"/>
       <c r="I67"/>
       <c r="J67" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="K67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A68"/>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="K68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A69"/>
       <c r="B69" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D69" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="K69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A70"/>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C70" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H70"/>
       <c r="I70"/>
       <c r="J70" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A71"/>
       <c r="B71" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D71" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H71"/>
       <c r="I71"/>
       <c r="J71" t="s">
+        <v>304</v>
+      </c>
+      <c r="K71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" t="s">
+        <v>306</v>
+      </c>
+      <c r="D72" t="s">
         <v>307</v>
-      </c>
-      <c r="K71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B72" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" t="s">
-        <v>309</v>
-      </c>
-      <c r="D72" t="s">
-        <v>297</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H72"/>
       <c r="I72"/>
       <c r="J72" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="K72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A73"/>
       <c r="B73" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" t="s">
         <v>311</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>312</v>
-      </c>
-      <c r="D73" t="s">
-        <v>313</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c r="K73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A74"/>
       <c r="B74" t="s">
+        <v>314</v>
+      </c>
+      <c r="C74" t="s">
         <v>315</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>316</v>
-      </c>
-      <c r="D74" t="s">
-        <v>317</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="K74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A75"/>
       <c r="B75" t="s">
         <v>319</v>
       </c>
@@ -4890,7 +5163,7 @@
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
         <v>322</v>
@@ -4898,45 +5171,41 @@
       <c r="H75"/>
       <c r="I75"/>
       <c r="J75" t="s">
+        <v>58</v>
+      </c>
+      <c r="K75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76" t="s">
         <v>323</v>
       </c>
-      <c r="K75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>324</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>325</v>
-      </c>
-      <c r="D76" t="s">
-        <v>326</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
       <c r="J76" t="s">
-        <v>34</v>
+        <v>327</v>
       </c>
       <c r="K76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A77"/>
       <c r="B77" t="s">
         <v>328</v>
       </c>
@@ -4948,7 +5217,7 @@
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G77" t="s">
         <v>331</v>
@@ -4963,9 +5232,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A78"/>
       <c r="B78" t="s">
         <v>333</v>
       </c>
@@ -4977,314 +5244,292 @@
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="G78" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
       <c r="J78" t="s">
+        <v>336</v>
+      </c>
+      <c r="K78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79" t="s">
         <v>337</v>
       </c>
-      <c r="K78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>338</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>339</v>
-      </c>
-      <c r="D79" t="s">
-        <v>340</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
       <c r="J79" t="s">
+        <v>332</v>
+      </c>
+      <c r="K79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>342</v>
+      </c>
+      <c r="D80" t="s">
         <v>343</v>
-      </c>
-      <c r="K79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>338</v>
-      </c>
-      <c r="C80" t="s">
-        <v>344</v>
-      </c>
-      <c r="D80" t="s">
-        <v>345</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="G80" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H80"/>
       <c r="I80"/>
       <c r="J80" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="K80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A81"/>
       <c r="B81" t="s">
+        <v>346</v>
+      </c>
+      <c r="C81" t="s">
         <v>347</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>348</v>
-      </c>
-      <c r="D81" t="s">
-        <v>349</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>350</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H81"/>
       <c r="I81"/>
       <c r="J81" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A82"/>
       <c r="B82" t="s">
+        <v>350</v>
+      </c>
+      <c r="C82" t="s">
+        <v>351</v>
+      </c>
+      <c r="D82" t="s">
         <v>352</v>
-      </c>
-      <c r="C82" t="s">
-        <v>353</v>
-      </c>
-      <c r="D82" t="s">
-        <v>354</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="G82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H82"/>
       <c r="I82"/>
       <c r="J82" t="s">
+        <v>354</v>
+      </c>
+      <c r="K82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83" t="s">
+        <v>355</v>
+      </c>
+      <c r="C83" t="s">
         <v>356</v>
       </c>
-      <c r="K82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>357</v>
-      </c>
-      <c r="C83" t="s">
-        <v>358</v>
-      </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H83"/>
       <c r="I83"/>
       <c r="J83" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="K83" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A84"/>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C84" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D84" t="s">
-        <v>196</v>
+        <v>360</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H84"/>
       <c r="I84"/>
       <c r="J84" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K84" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A85"/>
       <c r="B85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H85"/>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>369</v>
+        <v>69</v>
       </c>
       <c r="K85" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A86"/>
       <c r="B86" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D86" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G86" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H86"/>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="K86" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A87"/>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D87" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>242</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A88"/>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C88" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D88" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>242</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H88"/>
       <c r="I88"/>
       <c r="J88" t="s">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="K88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A89"/>
       <c r="B89" t="s">
         <v>380</v>
       </c>
@@ -5296,7 +5541,7 @@
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
         <v>383</v>
@@ -5304,173 +5549,161 @@
       <c r="H89"/>
       <c r="I89"/>
       <c r="J89" t="s">
-        <v>24</v>
+        <v>384</v>
       </c>
       <c r="K89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A90"/>
       <c r="B90" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D90" t="s">
-        <v>386</v>
+        <v>188</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="G90" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H90"/>
       <c r="I90"/>
       <c r="J90" t="s">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="K90" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A91"/>
       <c r="B91" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="G91" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H91"/>
       <c r="I91"/>
       <c r="J91" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
       <c r="K91" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A92"/>
       <c r="B92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="G92" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H92"/>
       <c r="I92"/>
       <c r="J92" t="s">
-        <v>396</v>
+        <v>241</v>
       </c>
       <c r="K92" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A93"/>
       <c r="B93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K93" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A94"/>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D94" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="G94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H94"/>
       <c r="I94"/>
       <c r="J94" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K94" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A95"/>
       <c r="B95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C95" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D95" t="s">
-        <v>409</v>
+        <v>213</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
         <v>410</v>
@@ -5478,16 +5711,14 @@
       <c r="H95"/>
       <c r="I95"/>
       <c r="J95" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="K95" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A96"/>
       <c r="B96" t="s">
         <v>411</v>
       </c>
@@ -5499,7 +5730,7 @@
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
         <v>414</v>
@@ -5507,16 +5738,14 @@
       <c r="H96"/>
       <c r="I96"/>
       <c r="J96" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="K96" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A97"/>
       <c r="B97" t="s">
         <v>415</v>
       </c>
@@ -5524,11 +5753,11 @@
         <v>416</v>
       </c>
       <c r="D97" t="s">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
         <v>417</v>
@@ -5536,28 +5765,26 @@
       <c r="H97"/>
       <c r="I97"/>
       <c r="J97" t="s">
+        <v>5</v>
+      </c>
+      <c r="K97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98" t="s">
         <v>418</v>
       </c>
-      <c r="K97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>419</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>420</v>
-      </c>
-      <c r="D98" t="s">
-        <v>202</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
         <v>421</v>
@@ -5572,9 +5799,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A99"/>
       <c r="B99" t="s">
         <v>423</v>
       </c>
@@ -5586,7 +5811,7 @@
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G99" t="s">
         <v>426</v>
@@ -5594,811 +5819,755 @@
       <c r="H99"/>
       <c r="I99"/>
       <c r="J99" t="s">
+        <v>12</v>
+      </c>
+      <c r="K99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100" t="s">
         <v>427</v>
       </c>
-      <c r="K99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>428</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>429</v>
-      </c>
-      <c r="D100" t="s">
-        <v>430</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="G100" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
       <c r="J100" t="s">
+        <v>24</v>
+      </c>
+      <c r="K100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101"/>
+      <c r="B101" t="s">
+        <v>431</v>
+      </c>
+      <c r="C101" t="s">
         <v>432</v>
       </c>
-      <c r="K100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>433</v>
-      </c>
-      <c r="C101" t="s">
-        <v>434</v>
-      </c>
       <c r="D101" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="G101" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
       <c r="J101" t="s">
-        <v>437</v>
+        <v>24</v>
       </c>
       <c r="K101" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A102"/>
       <c r="B102" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C102" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>435</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H102"/>
       <c r="I102"/>
       <c r="J102" t="s">
-        <v>441</v>
+        <v>24</v>
       </c>
       <c r="K102" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A103"/>
       <c r="B103" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C103" t="s">
+        <v>438</v>
+      </c>
+      <c r="D103" t="s">
         <v>439</v>
-      </c>
-      <c r="D103" t="s">
-        <v>349</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="G103" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H103"/>
       <c r="I103"/>
       <c r="J103" t="s">
-        <v>444</v>
+        <v>332</v>
       </c>
       <c r="K103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A104"/>
       <c r="B104" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C104" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D104" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G104" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H104"/>
       <c r="I104"/>
       <c r="J104" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K104" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A105"/>
       <c r="B105" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C105" t="s">
         <v>446</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" t="s">
+        <v>449</v>
+      </c>
+      <c r="K105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106"/>
+      <c r="B106" t="s">
         <v>450</v>
       </c>
-      <c r="K105" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>445</v>
-      </c>
       <c r="C106" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D106" t="s">
-        <v>170</v>
+        <v>452</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="G106" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H106"/>
       <c r="I106"/>
       <c r="J106" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K106" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A107"/>
       <c r="B107" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C107" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D107" t="s">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="G107" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="H107"/>
       <c r="I107"/>
       <c r="J107" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="K107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A108"/>
       <c r="B108" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="C108" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="D108" t="s">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="G108" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H108"/>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>448</v>
+        <v>24</v>
       </c>
       <c r="K108" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A109"/>
       <c r="B109" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="C109" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>466</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="G109" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="H109"/>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>450</v>
+        <v>69</v>
       </c>
       <c r="K109" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A110"/>
       <c r="B110" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D110" t="s">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="H110"/>
       <c r="I110"/>
       <c r="J110" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="K110" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A111"/>
       <c r="B111" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="C111" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="D111" t="s">
-        <v>457</v>
+        <v>219</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G111" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="K111" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A112"/>
       <c r="B112" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C112" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="D112" t="s">
-        <v>159</v>
+        <v>478</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="K112" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A113"/>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>481</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>482</v>
       </c>
       <c r="D113" t="s">
-        <v>208</v>
+        <v>483</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="G113" t="s">
-        <v>209</v>
+        <v>484</v>
       </c>
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113" t="s">
-        <v>210</v>
+        <v>485</v>
       </c>
       <c r="K113" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A114"/>
       <c r="B114" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="C114" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>488</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>465</v>
+        <v>167</v>
       </c>
       <c r="G114" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" t="s">
-        <v>24</v>
+        <v>490</v>
       </c>
       <c r="K114" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A115"/>
       <c r="B115" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="C115" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D115" t="s">
-        <v>469</v>
+        <v>255</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>470</v>
+        <v>140</v>
       </c>
       <c r="G115" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="K115" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A116"/>
       <c r="B116" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="C116" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="D116" t="s">
-        <v>475</v>
+        <v>395</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G116" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="K116" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A117"/>
       <c r="B117" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="C117" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="D117" t="s">
-        <v>480</v>
+        <v>177</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>481</v>
+        <v>178</v>
       </c>
       <c r="G117" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117" t="s">
-        <v>74</v>
+        <v>501</v>
       </c>
       <c r="K117" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A118"/>
       <c r="B118" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C118" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="D118" t="s">
-        <v>485</v>
+        <v>177</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="G118" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="K118" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A119"/>
       <c r="B119" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C119" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>490</v>
+        <v>177</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="G119" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="H119"/>
       <c r="I119"/>
       <c r="J119" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
       <c r="K119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A120"/>
       <c r="B120" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C120" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D120" t="s">
-        <v>494</v>
+        <v>177</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="G120" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="K120" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A121"/>
       <c r="B121" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C121" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>425</v>
+        <v>177</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="G121" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H121"/>
       <c r="I121"/>
       <c r="J121" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K121" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A122"/>
       <c r="B122" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C122" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>503</v>
+        <v>177</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="G122" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H122"/>
       <c r="I122"/>
       <c r="J122" t="s">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="K122" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A123"/>
       <c r="B123" t="s">
+        <v>504</v>
+      </c>
+      <c r="C123" t="s">
         <v>505</v>
       </c>
-      <c r="C123" t="s">
-        <v>506</v>
-      </c>
       <c r="D123" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="G123" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H123"/>
       <c r="I123"/>
       <c r="J123" t="s">
-        <v>5</v>
+        <v>507</v>
       </c>
       <c r="K123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A124"/>
       <c r="B124" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C124" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D124" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>507</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H124"/>
       <c r="I124"/>
       <c r="J124" t="s">
-        <v>5</v>
+        <v>512</v>
       </c>
       <c r="K124" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A125"/>
       <c r="B125" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D125" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H125"/>
       <c r="I125"/>
       <c r="J125" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="K125" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A126"/>
       <c r="B126" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C126" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D126" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>518</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H126"/>
       <c r="I126"/>
       <c r="J126" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K126" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A127"/>
       <c r="B127" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C127" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D127" t="s">
-        <v>522</v>
+        <v>166</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="G127" t="s">
         <v>523</v>
@@ -6406,495 +6575,461 @@
       <c r="H127"/>
       <c r="I127"/>
       <c r="J127" t="s">
-        <v>247</v>
+        <v>524</v>
       </c>
       <c r="K127" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A128"/>
       <c r="B128" t="s">
-        <v>524</v>
+        <v>223</v>
       </c>
       <c r="C128" t="s">
-        <v>525</v>
+        <v>224</v>
       </c>
       <c r="D128" t="s">
-        <v>526</v>
+        <v>225</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="G128" t="s">
-        <v>527</v>
+        <v>226</v>
       </c>
       <c r="H128"/>
       <c r="I128"/>
       <c r="J128" t="s">
-        <v>528</v>
+        <v>227</v>
       </c>
       <c r="K128" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A129"/>
       <c r="B129" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C129" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D129" t="s">
-        <v>531</v>
+        <v>147</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>527</v>
       </c>
       <c r="G129" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H129"/>
       <c r="I129"/>
       <c r="J129" t="s">
-        <v>533</v>
+        <v>24</v>
       </c>
       <c r="K129" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A130"/>
       <c r="B130" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C130" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D130" t="s">
-        <v>536</v>
+        <v>213</v>
       </c>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="G130" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H130"/>
       <c r="I130"/>
       <c r="J130" t="s">
-        <v>24</v>
+        <v>532</v>
       </c>
       <c r="K130" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A131"/>
       <c r="B131" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C131" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D131" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>536</v>
       </c>
       <c r="G131" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H131"/>
       <c r="I131"/>
       <c r="J131" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="K131" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A132"/>
       <c r="B132" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C132" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D132" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="G132" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132" t="s">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="K132" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A133"/>
       <c r="B133" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C133" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D133" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H133"/>
       <c r="I133"/>
       <c r="J133" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A134"/>
       <c r="B134" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C134" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D134" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>171</v>
+        <v>550</v>
       </c>
       <c r="G134" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H134"/>
       <c r="I134"/>
       <c r="J134" t="s">
-        <v>555</v>
+        <v>74</v>
       </c>
       <c r="K134" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A135"/>
       <c r="B135" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D135" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H135"/>
       <c r="I135"/>
       <c r="J135" t="s">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="K135" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A136"/>
       <c r="B136" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C136" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D136" t="s">
-        <v>202</v>
+        <v>559</v>
       </c>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G136" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H136"/>
       <c r="I136"/>
       <c r="J136" t="s">
+        <v>241</v>
+      </c>
+      <c r="K136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137"/>
+      <c r="B137" t="s">
+        <v>561</v>
+      </c>
+      <c r="C137" t="s">
+        <v>562</v>
+      </c>
+      <c r="D137" t="s">
         <v>563</v>
-      </c>
-      <c r="K136" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B137" t="s">
-        <v>564</v>
-      </c>
-      <c r="C137" t="s">
-        <v>565</v>
-      </c>
-      <c r="D137" t="s">
-        <v>566</v>
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>567</v>
+        <v>78</v>
       </c>
       <c r="G137" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H137"/>
       <c r="I137"/>
       <c r="J137" t="s">
-        <v>569</v>
+        <v>239</v>
       </c>
       <c r="K137" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A138"/>
       <c r="B138" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C138" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D138" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G138" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H138"/>
       <c r="I138"/>
       <c r="J138" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A139"/>
       <c r="B139" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C139" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D139" t="s">
-        <v>577</v>
+        <v>478</v>
       </c>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="G139" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H139"/>
       <c r="I139"/>
       <c r="J139" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K139" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A140"/>
       <c r="B140" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C140" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D140" t="s">
-        <v>231</v>
+        <v>576</v>
       </c>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H140"/>
       <c r="I140"/>
       <c r="J140" t="s">
-        <v>583</v>
+        <v>6</v>
       </c>
       <c r="K140" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A141"/>
       <c r="B141" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="C141" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D141" t="s">
-        <v>196</v>
+        <v>580</v>
       </c>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>396</v>
       </c>
       <c r="G141" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H141"/>
       <c r="I141"/>
       <c r="J141" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K141" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A142"/>
       <c r="B142" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C142" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D142" t="s">
-        <v>590</v>
+        <v>395</v>
       </c>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="G142" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H142"/>
       <c r="I142"/>
       <c r="J142" t="s">
-        <v>58</v>
+        <v>245</v>
       </c>
       <c r="K142" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A143"/>
       <c r="B143" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C143" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D143" t="s">
-        <v>594</v>
+        <v>128</v>
       </c>
       <c r="E143"/>
       <c r="F143" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="G143" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="H143"/>
       <c r="I143"/>
       <c r="J143" t="s">
-        <v>87</v>
+        <v>588</v>
       </c>
       <c r="K143" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A144"/>
       <c r="B144" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C144" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D144" t="s">
-        <v>598</v>
+        <v>198</v>
       </c>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>591</v>
       </c>
       <c r="G144" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H144"/>
       <c r="I144"/>
@@ -6906,2206 +7041,3107 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A145"/>
       <c r="B145" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C145" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D145" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>61</v>
+        <v>591</v>
       </c>
       <c r="G145" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H145"/>
       <c r="I145"/>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="K145" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A146"/>
       <c r="B146" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C146" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D146" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="G146" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="H146"/>
       <c r="I146"/>
       <c r="J146" t="s">
-        <v>69</v>
+        <v>598</v>
       </c>
       <c r="K146" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A147"/>
       <c r="B147" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C147" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D147" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>122</v>
+        <v>602</v>
       </c>
       <c r="G147" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H147"/>
       <c r="I147"/>
       <c r="J147" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K147" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A148"/>
       <c r="B148" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C148" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D148" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E148"/>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>243</v>
       </c>
       <c r="G148" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H148"/>
       <c r="I148"/>
       <c r="J148" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="K148" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A149"/>
       <c r="B149" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C149" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D149" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G149" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H149"/>
       <c r="I149"/>
       <c r="J149" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="K149" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A150"/>
       <c r="B150" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C150" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D150" t="s">
-        <v>622</v>
+        <v>88</v>
       </c>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="G150" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
       <c r="J150" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="K150" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A151"/>
       <c r="B151" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="C151" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D151" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="G151" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="H151"/>
       <c r="I151"/>
       <c r="J151" t="s">
-        <v>626</v>
+        <v>24</v>
       </c>
       <c r="K151" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A152"/>
       <c r="B152" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C152" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D152" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E152"/>
       <c r="F152" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H152"/>
       <c r="I152"/>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>624</v>
       </c>
       <c r="K152" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A153"/>
       <c r="B153" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C153" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D153" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E153"/>
       <c r="F153" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="G153" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H153"/>
       <c r="I153"/>
       <c r="J153" t="s">
-        <v>635</v>
+        <v>370</v>
       </c>
       <c r="K153" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A154"/>
       <c r="B154" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C154" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D154" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="G154" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H154"/>
       <c r="I154"/>
       <c r="J154" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="K154" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A155"/>
       <c r="B155" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="C155" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D155" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E155"/>
       <c r="F155" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G155" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H155"/>
       <c r="I155"/>
       <c r="J155" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="K155" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A156"/>
       <c r="B156" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C156" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D156" t="s">
-        <v>425</v>
+        <v>640</v>
       </c>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G156" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="H156"/>
       <c r="I156"/>
       <c r="J156" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="K156" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A157"/>
       <c r="B157" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C157" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D157" t="s">
-        <v>650</v>
+        <v>219</v>
       </c>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="G157" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H157"/>
       <c r="I157"/>
       <c r="J157" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="K157" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A158"/>
       <c r="B158" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C158" t="s">
-        <v>224</v>
+        <v>647</v>
       </c>
       <c r="D158" t="s">
-        <v>425</v>
+        <v>648</v>
       </c>
       <c r="E158"/>
       <c r="F158" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="G158" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H158"/>
       <c r="I158"/>
       <c r="J158" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="K158" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A159"/>
       <c r="B159" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C159" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D159" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>653</v>
       </c>
       <c r="G159" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H159"/>
       <c r="I159"/>
       <c r="J159" t="s">
+        <v>655</v>
+      </c>
+      <c r="K159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160"/>
+      <c r="B160" t="s">
+        <v>656</v>
+      </c>
+      <c r="C160" t="s">
+        <v>657</v>
+      </c>
+      <c r="D160" t="s">
         <v>658</v>
-      </c>
-      <c r="K159" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B160" t="s">
-        <v>659</v>
-      </c>
-      <c r="C160" t="s">
-        <v>660</v>
-      </c>
-      <c r="D160" t="s">
-        <v>425</v>
       </c>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H160"/>
       <c r="I160"/>
       <c r="J160" t="s">
+        <v>660</v>
+      </c>
+      <c r="K160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161"/>
+      <c r="B161" t="s">
+        <v>661</v>
+      </c>
+      <c r="C161" t="s">
         <v>662</v>
       </c>
-      <c r="K160" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B161" t="s">
-        <v>663</v>
-      </c>
-      <c r="C161" t="s">
-        <v>664</v>
-      </c>
       <c r="D161" t="s">
-        <v>349</v>
+        <v>255</v>
       </c>
       <c r="E161"/>
       <c r="F161" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="G161" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H161"/>
       <c r="I161"/>
       <c r="J161" t="s">
-        <v>6</v>
+        <v>664</v>
       </c>
       <c r="K161" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A162"/>
       <c r="B162" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C162" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D162" t="s">
-        <v>668</v>
+        <v>255</v>
       </c>
       <c r="E162"/>
       <c r="F162" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="G162" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="H162"/>
       <c r="I162"/>
       <c r="J162" t="s">
-        <v>5</v>
+        <v>666</v>
       </c>
       <c r="K162" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A163"/>
       <c r="B163" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C163" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D163" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E163"/>
       <c r="F163" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G163" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H163"/>
       <c r="I163"/>
       <c r="J163" t="s">
-        <v>294</v>
+        <v>671</v>
       </c>
       <c r="K163" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A164"/>
       <c r="B164" t="s">
+        <v>672</v>
+      </c>
+      <c r="C164" t="s">
+        <v>673</v>
+      </c>
+      <c r="D164" t="s">
         <v>674</v>
-      </c>
-      <c r="C164" t="s">
-        <v>675</v>
-      </c>
-      <c r="D164" t="s">
-        <v>676</v>
       </c>
       <c r="E164"/>
       <c r="F164" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="G164" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H164"/>
       <c r="I164"/>
       <c r="J164" t="s">
+        <v>676</v>
+      </c>
+      <c r="K164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165"/>
+      <c r="B165" t="s">
+        <v>677</v>
+      </c>
+      <c r="C165" t="s">
         <v>678</v>
       </c>
-      <c r="K164" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B165" t="s">
-        <v>679</v>
-      </c>
-      <c r="C165" t="s">
-        <v>680</v>
-      </c>
       <c r="D165" t="s">
-        <v>681</v>
+        <v>255</v>
       </c>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="G165" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H165"/>
       <c r="I165"/>
       <c r="J165" t="s">
-        <v>294</v>
+        <v>680</v>
       </c>
       <c r="K165" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A166"/>
       <c r="B166" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C166" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D166" t="s">
-        <v>685</v>
+        <v>213</v>
       </c>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H166"/>
       <c r="I166"/>
       <c r="J166" t="s">
-        <v>294</v>
+        <v>684</v>
       </c>
       <c r="K166" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A167"/>
       <c r="B167" t="s">
-        <v>687</v>
+        <v>628</v>
       </c>
       <c r="C167" t="s">
-        <v>688</v>
+        <v>629</v>
       </c>
       <c r="D167" t="s">
-        <v>31</v>
+        <v>630</v>
       </c>
       <c r="E167"/>
       <c r="F167" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="G167" t="s">
-        <v>689</v>
+        <v>631</v>
       </c>
       <c r="H167"/>
       <c r="I167"/>
       <c r="J167" t="s">
-        <v>294</v>
+        <v>632</v>
       </c>
       <c r="K167" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A168"/>
       <c r="B168" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C168" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D168" t="s">
-        <v>692</v>
+        <v>188</v>
       </c>
       <c r="E168"/>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>687</v>
       </c>
       <c r="G168" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="H168"/>
       <c r="I168"/>
       <c r="J168" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="K168" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A169"/>
       <c r="B169" t="s">
-        <v>695</v>
+        <v>314</v>
       </c>
       <c r="C169" t="s">
-        <v>696</v>
+        <v>315</v>
       </c>
       <c r="D169" t="s">
-        <v>697</v>
+        <v>316</v>
       </c>
       <c r="E169"/>
       <c r="F169" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>698</v>
+        <v>317</v>
       </c>
       <c r="H169"/>
       <c r="I169"/>
       <c r="J169" t="s">
-        <v>699</v>
+        <v>318</v>
       </c>
       <c r="K169" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A170"/>
       <c r="B170" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C170" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D170" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="E170"/>
       <c r="F170" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="G170" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="H170"/>
       <c r="I170"/>
       <c r="J170" t="s">
-        <v>704</v>
+        <v>58</v>
       </c>
       <c r="K170" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A171"/>
       <c r="B171" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C171" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="D171" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E171"/>
       <c r="F171" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G171" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="H171"/>
       <c r="I171"/>
       <c r="J171" t="s">
-        <v>709</v>
+        <v>94</v>
       </c>
       <c r="K171" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A172"/>
       <c r="B172" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C172" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="D172" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="E172"/>
       <c r="F172" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="G172" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="H172"/>
       <c r="I172"/>
       <c r="J172" t="s">
-        <v>714</v>
+        <v>5</v>
       </c>
       <c r="K172" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A173"/>
       <c r="B173" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C173" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="D173" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="E173"/>
       <c r="F173" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="G173" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="H173"/>
       <c r="I173"/>
       <c r="J173" t="s">
-        <v>719</v>
+        <v>46</v>
       </c>
       <c r="K173" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A174"/>
       <c r="B174" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="C174" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="D174" t="s">
-        <v>425</v>
+        <v>708</v>
       </c>
       <c r="E174"/>
       <c r="F174" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="G174" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="H174"/>
       <c r="I174"/>
       <c r="J174" t="s">
-        <v>723</v>
+        <v>69</v>
       </c>
       <c r="K174" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A175"/>
       <c r="B175" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="C175" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="D175" t="s">
-        <v>572</v>
+        <v>712</v>
       </c>
       <c r="E175"/>
       <c r="F175" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="G175" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="H175"/>
       <c r="I175"/>
       <c r="J175" t="s">
-        <v>727</v>
+        <v>34</v>
       </c>
       <c r="K175" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A176"/>
       <c r="B176" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="C176" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="D176" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="E176"/>
       <c r="F176" t="s">
-        <v>731</v>
+        <v>22</v>
       </c>
       <c r="G176" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="H176"/>
       <c r="I176"/>
       <c r="J176" t="s">
-        <v>733</v>
+        <v>402</v>
       </c>
       <c r="K176" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A177"/>
       <c r="B177" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="C177" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="D177" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E177"/>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="G177" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="H177"/>
       <c r="I177"/>
       <c r="J177" t="s">
-        <v>294</v>
+        <v>532</v>
       </c>
       <c r="K177" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A178"/>
       <c r="B178" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="C178" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="D178" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="E178"/>
       <c r="F178" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="G178" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="H178"/>
       <c r="I178"/>
       <c r="J178" t="s">
-        <v>97</v>
+        <v>726</v>
       </c>
       <c r="K178" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A179"/>
       <c r="B179" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="C179" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="D179" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="E179"/>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G179" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="H179"/>
       <c r="I179"/>
       <c r="J179" t="s">
-        <v>406</v>
+        <v>728</v>
       </c>
       <c r="K179" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A180"/>
       <c r="B180" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="C180" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="D180" t="s">
-        <v>231</v>
+        <v>731</v>
       </c>
       <c r="E180"/>
       <c r="F180" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G180" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="H180"/>
       <c r="I180"/>
       <c r="J180" t="s">
-        <v>749</v>
+        <v>46</v>
       </c>
       <c r="K180" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A181"/>
       <c r="B181" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="C181" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="D181" t="s">
-        <v>340</v>
+        <v>735</v>
       </c>
       <c r="E181"/>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="G181" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="H181"/>
       <c r="I181"/>
       <c r="J181" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="K181" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A182"/>
       <c r="B182" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C182" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="D182" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="E182"/>
       <c r="F182" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G182" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="H182"/>
       <c r="I182"/>
       <c r="J182" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="K182" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A183"/>
       <c r="B183" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="C183" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="D183" t="s">
-        <v>159</v>
+        <v>745</v>
       </c>
       <c r="E183"/>
       <c r="F183" t="s">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="G183" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="H183"/>
       <c r="I183"/>
       <c r="J183" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="K183" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A184"/>
       <c r="B184" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="C184" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="D184" t="s">
-        <v>765</v>
+        <v>478</v>
       </c>
       <c r="E184"/>
       <c r="F184" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="H184"/>
       <c r="I184"/>
       <c r="J184" t="s">
-        <v>767</v>
+        <v>142</v>
       </c>
       <c r="K184" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A185"/>
       <c r="B185" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="C185" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="D185" t="s">
-        <v>181</v>
+        <v>752</v>
       </c>
       <c r="E185"/>
       <c r="F185" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G185" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="H185"/>
       <c r="I185"/>
       <c r="J185" t="s">
-        <v>5</v>
+        <v>754</v>
       </c>
       <c r="K185" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A186"/>
       <c r="B186" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="C186" t="s">
-        <v>772</v>
+        <v>241</v>
       </c>
       <c r="D186" t="s">
-        <v>773</v>
+        <v>478</v>
       </c>
       <c r="E186"/>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G186" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="H186"/>
       <c r="I186"/>
       <c r="J186" t="s">
-        <v>775</v>
+        <v>142</v>
       </c>
       <c r="K186" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A187"/>
       <c r="B187" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="C187" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="D187" t="s">
-        <v>340</v>
+        <v>758</v>
       </c>
       <c r="E187"/>
       <c r="F187" t="s">
-        <v>778</v>
+        <v>22</v>
       </c>
       <c r="G187" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="H187"/>
       <c r="I187"/>
       <c r="J187" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="K187" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A188"/>
       <c r="B188" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="C188" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="D188" t="s">
-        <v>783</v>
+        <v>478</v>
       </c>
       <c r="E188"/>
       <c r="F188" t="s">
-        <v>778</v>
+        <v>50</v>
       </c>
       <c r="G188" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="H188"/>
       <c r="I188"/>
       <c r="J188" t="s">
-        <v>6</v>
+        <v>764</v>
       </c>
       <c r="K188" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A189"/>
       <c r="B189" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="C189" t="s">
-        <v>48</v>
+        <v>766</v>
       </c>
       <c r="D189" t="s">
-        <v>786</v>
+        <v>395</v>
       </c>
       <c r="E189"/>
       <c r="F189" t="s">
-        <v>465</v>
+        <v>78</v>
       </c>
       <c r="G189" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="H189"/>
       <c r="I189"/>
       <c r="J189" t="s">
-        <v>788</v>
+        <v>6</v>
       </c>
       <c r="K189" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A190"/>
       <c r="B190" t="s">
-        <v>488</v>
+        <v>768</v>
       </c>
       <c r="C190" t="s">
-        <v>489</v>
+        <v>769</v>
       </c>
       <c r="D190" t="s">
-        <v>490</v>
+        <v>770</v>
       </c>
       <c r="E190"/>
       <c r="F190" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="G190" t="s">
-        <v>491</v>
+        <v>771</v>
       </c>
       <c r="H190"/>
       <c r="I190"/>
       <c r="J190" t="s">
-        <v>222</v>
+        <v>5</v>
       </c>
       <c r="K190" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A191"/>
       <c r="B191" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="C191" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
       <c r="D191" t="s">
-        <v>425</v>
+        <v>774</v>
       </c>
       <c r="E191"/>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G191" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="H191"/>
       <c r="I191"/>
       <c r="J191" t="s">
-        <v>792</v>
+        <v>332</v>
       </c>
       <c r="K191" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A192"/>
       <c r="B192" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="C192" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
       <c r="D192" t="s">
-        <v>181</v>
+        <v>778</v>
       </c>
       <c r="E192"/>
       <c r="F192" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G192" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="H192"/>
       <c r="I192"/>
       <c r="J192" t="s">
-        <v>18</v>
+        <v>780</v>
       </c>
       <c r="K192" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A193"/>
       <c r="B193" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="C193" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="D193" t="s">
-        <v>202</v>
+        <v>783</v>
       </c>
       <c r="E193"/>
       <c r="F193" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="G193" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="H193"/>
       <c r="I193"/>
       <c r="J193" t="s">
-        <v>799</v>
+        <v>332</v>
       </c>
       <c r="K193" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A194"/>
       <c r="B194" t="s">
-        <v>179</v>
+        <v>785</v>
       </c>
       <c r="C194" t="s">
-        <v>180</v>
+        <v>786</v>
       </c>
       <c r="D194" t="s">
-        <v>181</v>
+        <v>787</v>
       </c>
       <c r="E194"/>
       <c r="F194" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="G194" t="s">
-        <v>182</v>
+        <v>788</v>
       </c>
       <c r="H194"/>
       <c r="I194"/>
       <c r="J194" t="s">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="K194" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A195"/>
       <c r="B195" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="C195" t="s">
-        <v>801</v>
+        <v>247</v>
       </c>
       <c r="D195" t="s">
-        <v>802</v>
+        <v>31</v>
       </c>
       <c r="E195"/>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="G195" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="H195"/>
       <c r="I195"/>
       <c r="J195" t="s">
-        <v>804</v>
+        <v>332</v>
       </c>
       <c r="K195" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A196"/>
       <c r="B196" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>792</v>
       </c>
       <c r="D196" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="E196"/>
       <c r="F196" t="s">
-        <v>242</v>
+        <v>550</v>
       </c>
       <c r="G196" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="H196"/>
       <c r="I196"/>
       <c r="J196" t="s">
-        <v>18</v>
+        <v>795</v>
       </c>
       <c r="K196" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A197"/>
       <c r="B197" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="C197" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="D197" t="s">
-        <v>349</v>
+        <v>798</v>
       </c>
       <c r="E197"/>
       <c r="F197" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="G197" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="H197"/>
       <c r="I197"/>
       <c r="J197" t="s">
-        <v>810</v>
+        <v>18</v>
       </c>
       <c r="K197" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A198"/>
       <c r="B198" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="C198" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="D198" t="s">
-        <v>196</v>
+        <v>802</v>
       </c>
       <c r="E198"/>
       <c r="F198" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G198" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="H198"/>
       <c r="I198"/>
       <c r="J198" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="K198" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A199"/>
       <c r="B199" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C199" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D199" t="s">
-        <v>430</v>
+        <v>807</v>
       </c>
       <c r="E199"/>
       <c r="F199" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="G199" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="H199"/>
       <c r="I199"/>
       <c r="J199" t="s">
-        <v>215</v>
+        <v>809</v>
       </c>
       <c r="K199" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A200"/>
       <c r="B200" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C200" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D200" t="s">
-        <v>140</v>
+        <v>812</v>
       </c>
       <c r="E200"/>
       <c r="F200" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="G200" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="H200"/>
       <c r="I200"/>
       <c r="J200" t="s">
-        <v>199</v>
+        <v>814</v>
       </c>
       <c r="K200" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A201"/>
       <c r="B201" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C201" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D201" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E201"/>
       <c r="F201" t="s">
         <v>61</v>
       </c>
       <c r="G201" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="H201"/>
       <c r="I201"/>
       <c r="J201" t="s">
-        <v>323</v>
+        <v>819</v>
       </c>
       <c r="K201" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A202"/>
       <c r="B202" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C202" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D202" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E202"/>
       <c r="F202" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="G202" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H202"/>
       <c r="I202"/>
       <c r="J202" t="s">
-        <v>18</v>
+        <v>824</v>
       </c>
       <c r="K202" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A203"/>
       <c r="B203" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C203" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D203" t="s">
-        <v>202</v>
+        <v>827</v>
       </c>
       <c r="E203"/>
       <c r="F203" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="G203" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H203"/>
       <c r="I203"/>
       <c r="J203" t="s">
+        <v>829</v>
+      </c>
+      <c r="K203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204"/>
+      <c r="B204" t="s">
+        <v>830</v>
+      </c>
+      <c r="C204" t="s">
         <v>831</v>
       </c>
-      <c r="K203" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B204" t="s">
-        <v>832</v>
-      </c>
-      <c r="C204" t="s">
-        <v>833</v>
-      </c>
       <c r="D204" t="s">
-        <v>756</v>
+        <v>478</v>
       </c>
       <c r="E204"/>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="G204" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H204"/>
       <c r="I204"/>
       <c r="J204" t="s">
+        <v>833</v>
+      </c>
+      <c r="K204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205"/>
+      <c r="B205" t="s">
+        <v>834</v>
+      </c>
+      <c r="C205" t="s">
         <v>835</v>
       </c>
-      <c r="K204" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B205" t="s">
+      <c r="D205" t="s">
         <v>836</v>
-      </c>
-      <c r="C205" t="s">
-        <v>837</v>
-      </c>
-      <c r="D205" t="s">
-        <v>202</v>
       </c>
       <c r="E205"/>
       <c r="F205" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="G205" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H205"/>
       <c r="I205"/>
       <c r="J205" t="s">
+        <v>838</v>
+      </c>
+      <c r="K205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206"/>
+      <c r="B206" t="s">
         <v>839</v>
       </c>
-      <c r="K205" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>840</v>
       </c>
-      <c r="C206" t="s">
-        <v>837</v>
-      </c>
       <c r="D206" t="s">
-        <v>202</v>
+        <v>669</v>
       </c>
       <c r="E206"/>
       <c r="F206" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="G206" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="H206"/>
       <c r="I206"/>
       <c r="J206" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K206" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A207"/>
       <c r="B207" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C207" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D207" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E207"/>
       <c r="F207" t="s">
-        <v>78</v>
+        <v>846</v>
       </c>
       <c r="G207" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H207"/>
       <c r="I207"/>
       <c r="J207" t="s">
-        <v>846</v>
+        <v>345</v>
       </c>
       <c r="K207" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A208"/>
       <c r="B208" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C208" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D208" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E208"/>
       <c r="F208" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G208" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H208"/>
       <c r="I208"/>
       <c r="J208" t="s">
-        <v>851</v>
+        <v>332</v>
       </c>
       <c r="K208" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A209"/>
       <c r="B209" t="s">
         <v>852</v>
       </c>
       <c r="C209" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="D209" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="E209"/>
       <c r="F209" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G209" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H209"/>
       <c r="I209"/>
       <c r="J209" t="s">
-        <v>851</v>
+        <v>104</v>
       </c>
       <c r="K209" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A210"/>
       <c r="B210" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C210" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="D210" t="s">
-        <v>231</v>
+        <v>858</v>
       </c>
       <c r="E210"/>
       <c r="F210" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G210" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="H210"/>
       <c r="I210"/>
       <c r="J210" t="s">
-        <v>856</v>
+        <v>459</v>
       </c>
       <c r="K210" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A211"/>
       <c r="B211" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C211" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="D211" t="s">
-        <v>849</v>
+        <v>255</v>
       </c>
       <c r="E211"/>
       <c r="F211" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="G211" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="H211"/>
       <c r="I211"/>
       <c r="J211" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
       <c r="K211" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A212"/>
       <c r="B212" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C212" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="D212" t="s">
-        <v>861</v>
+        <v>188</v>
       </c>
       <c r="E212"/>
       <c r="F212" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="G212" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H212"/>
       <c r="I212"/>
       <c r="J212" t="s">
-        <v>34</v>
+        <v>867</v>
       </c>
       <c r="K212" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A213"/>
       <c r="B213" t="s">
-        <v>556</v>
+        <v>868</v>
       </c>
       <c r="C213" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D213" t="s">
-        <v>668</v>
+        <v>870</v>
       </c>
       <c r="E213"/>
       <c r="F213" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="G213" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="H213"/>
       <c r="I213"/>
       <c r="J213" t="s">
-        <v>34</v>
+        <v>872</v>
       </c>
       <c r="K213" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A214"/>
       <c r="B214" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C214" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="D214" t="s">
-        <v>867</v>
+        <v>166</v>
       </c>
       <c r="E214"/>
       <c r="F214" t="s">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="G214" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="H214"/>
       <c r="I214"/>
       <c r="J214" t="s">
-        <v>5</v>
+        <v>876</v>
       </c>
       <c r="K214" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A215"/>
       <c r="B215" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="C215" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D215" t="s">
-        <v>871</v>
+        <v>166</v>
       </c>
       <c r="E215"/>
       <c r="F215" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="G215" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="H215"/>
       <c r="I215"/>
       <c r="J215" t="s">
-        <v>533</v>
+        <v>880</v>
       </c>
       <c r="K215" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A216"/>
       <c r="B216" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="C216" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="D216" t="s">
-        <v>196</v>
+        <v>883</v>
       </c>
       <c r="E216"/>
       <c r="F216" t="s">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="G216" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="H216"/>
       <c r="I216"/>
       <c r="J216" t="s">
-        <v>6</v>
+        <v>885</v>
       </c>
       <c r="K216" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A217"/>
       <c r="B217" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="C217" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="D217" t="s">
-        <v>878</v>
+        <v>198</v>
       </c>
       <c r="E217"/>
       <c r="F217" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G217" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="H217"/>
       <c r="I217"/>
       <c r="J217" t="s">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="K217" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A218"/>
       <c r="B218" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="C218" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="D218" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="E218"/>
       <c r="F218" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="H218"/>
       <c r="I218"/>
       <c r="J218" t="s">
-        <v>34</v>
+        <v>893</v>
       </c>
       <c r="K218" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A219"/>
       <c r="B219" t="s">
-        <v>884</v>
+        <v>685</v>
       </c>
       <c r="C219" t="s">
-        <v>885</v>
+        <v>686</v>
       </c>
       <c r="D219" t="s">
-        <v>297</v>
+        <v>188</v>
       </c>
       <c r="E219"/>
       <c r="F219" t="s">
-        <v>56</v>
+        <v>687</v>
       </c>
       <c r="G219" t="s">
-        <v>886</v>
+        <v>688</v>
       </c>
       <c r="H219"/>
       <c r="I219"/>
       <c r="J219" t="s">
-        <v>298</v>
+        <v>689</v>
       </c>
       <c r="K219" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A220"/>
       <c r="B220" t="s">
-        <v>556</v>
+        <v>894</v>
       </c>
       <c r="C220" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="D220" t="s">
-        <v>349</v>
+        <v>896</v>
       </c>
       <c r="E220"/>
       <c r="F220" t="s">
-        <v>242</v>
+        <v>687</v>
       </c>
       <c r="G220" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="H220"/>
       <c r="I220"/>
       <c r="J220" t="s">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="K220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221"/>
+      <c r="B221" t="s">
+        <v>898</v>
+      </c>
+      <c r="C221" t="s">
+        <v>48</v>
+      </c>
+      <c r="D221" t="s">
+        <v>899</v>
+      </c>
+      <c r="E221"/>
+      <c r="F221" t="s">
+        <v>527</v>
+      </c>
+      <c r="G221" t="s">
+        <v>900</v>
+      </c>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221" t="s">
+        <v>901</v>
+      </c>
+      <c r="K221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222"/>
+      <c r="B222" t="s">
+        <v>902</v>
+      </c>
+      <c r="C222" t="s">
+        <v>903</v>
+      </c>
+      <c r="D222" t="s">
+        <v>213</v>
+      </c>
+      <c r="E222"/>
+      <c r="F222" t="s">
+        <v>56</v>
+      </c>
+      <c r="G222" t="s">
+        <v>904</v>
+      </c>
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222" t="s">
+        <v>905</v>
+      </c>
+      <c r="K222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223"/>
+      <c r="B223" t="s">
+        <v>906</v>
+      </c>
+      <c r="C223" t="s">
+        <v>907</v>
+      </c>
+      <c r="D223" t="s">
+        <v>134</v>
+      </c>
+      <c r="E223"/>
+      <c r="F223" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" t="s">
+        <v>908</v>
+      </c>
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223" t="s">
+        <v>909</v>
+      </c>
+      <c r="K223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224"/>
+      <c r="B224" t="s">
+        <v>561</v>
+      </c>
+      <c r="C224" t="s">
+        <v>562</v>
+      </c>
+      <c r="D224" t="s">
+        <v>563</v>
+      </c>
+      <c r="E224"/>
+      <c r="F224" t="s">
+        <v>78</v>
+      </c>
+      <c r="G224" t="s">
+        <v>564</v>
+      </c>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224" t="s">
+        <v>239</v>
+      </c>
+      <c r="K224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225"/>
+      <c r="B225" t="s">
+        <v>910</v>
+      </c>
+      <c r="C225" t="s">
+        <v>911</v>
+      </c>
+      <c r="D225" t="s">
+        <v>478</v>
+      </c>
+      <c r="E225"/>
+      <c r="F225" t="s">
+        <v>56</v>
+      </c>
+      <c r="G225" t="s">
+        <v>912</v>
+      </c>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225" t="s">
+        <v>913</v>
+      </c>
+      <c r="K225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226"/>
+      <c r="B226" t="s">
+        <v>914</v>
+      </c>
+      <c r="C226" t="s">
+        <v>915</v>
+      </c>
+      <c r="D226" t="s">
+        <v>916</v>
+      </c>
+      <c r="E226"/>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" t="s">
+        <v>917</v>
+      </c>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226" t="s">
+        <v>241</v>
+      </c>
+      <c r="K226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227"/>
+      <c r="B227" t="s">
+        <v>918</v>
+      </c>
+      <c r="C227" t="s">
+        <v>919</v>
+      </c>
+      <c r="D227" t="s">
+        <v>198</v>
+      </c>
+      <c r="E227"/>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" t="s">
+        <v>920</v>
+      </c>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227" t="s">
+        <v>18</v>
+      </c>
+      <c r="K227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228"/>
+      <c r="B228" t="s">
+        <v>921</v>
+      </c>
+      <c r="C228" t="s">
+        <v>922</v>
+      </c>
+      <c r="D228" t="s">
+        <v>219</v>
+      </c>
+      <c r="E228"/>
+      <c r="F228" t="s">
+        <v>140</v>
+      </c>
+      <c r="G228" t="s">
+        <v>923</v>
+      </c>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228" t="s">
+        <v>924</v>
+      </c>
+      <c r="K228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229"/>
+      <c r="B229" t="s">
+        <v>196</v>
+      </c>
+      <c r="C229" t="s">
+        <v>197</v>
+      </c>
+      <c r="D229" t="s">
+        <v>198</v>
+      </c>
+      <c r="E229"/>
+      <c r="F229" t="s">
+        <v>22</v>
+      </c>
+      <c r="G229" t="s">
+        <v>199</v>
+      </c>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229" t="s">
+        <v>18</v>
+      </c>
+      <c r="K229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230"/>
+      <c r="B230" t="s">
+        <v>925</v>
+      </c>
+      <c r="C230" t="s">
+        <v>926</v>
+      </c>
+      <c r="D230" t="s">
+        <v>927</v>
+      </c>
+      <c r="E230"/>
+      <c r="F230" t="s">
+        <v>56</v>
+      </c>
+      <c r="G230" t="s">
+        <v>928</v>
+      </c>
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230" t="s">
+        <v>929</v>
+      </c>
+      <c r="K230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231"/>
+      <c r="B231" t="s">
+        <v>930</v>
+      </c>
+      <c r="C231" t="s">
+        <v>241</v>
+      </c>
+      <c r="D231" t="s">
+        <v>931</v>
+      </c>
+      <c r="E231"/>
+      <c r="F231" t="s">
+        <v>266</v>
+      </c>
+      <c r="G231" t="s">
+        <v>928</v>
+      </c>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231" t="s">
+        <v>18</v>
+      </c>
+      <c r="K231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232"/>
+      <c r="B232" t="s">
+        <v>932</v>
+      </c>
+      <c r="C232" t="s">
+        <v>933</v>
+      </c>
+      <c r="D232" t="s">
+        <v>395</v>
+      </c>
+      <c r="E232"/>
+      <c r="F232" t="s">
+        <v>108</v>
+      </c>
+      <c r="G232" t="s">
+        <v>934</v>
+      </c>
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232" t="s">
+        <v>935</v>
+      </c>
+      <c r="K232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233"/>
+      <c r="B233" t="s">
+        <v>936</v>
+      </c>
+      <c r="C233" t="s">
+        <v>937</v>
+      </c>
+      <c r="D233" t="s">
+        <v>213</v>
+      </c>
+      <c r="E233"/>
+      <c r="F233" t="s">
+        <v>67</v>
+      </c>
+      <c r="G233" t="s">
+        <v>938</v>
+      </c>
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233" t="s">
+        <v>939</v>
+      </c>
+      <c r="K233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234"/>
+      <c r="B234" t="s">
+        <v>936</v>
+      </c>
+      <c r="C234" t="s">
+        <v>940</v>
+      </c>
+      <c r="D234" t="s">
+        <v>483</v>
+      </c>
+      <c r="E234"/>
+      <c r="F234" t="s">
+        <v>50</v>
+      </c>
+      <c r="G234" t="s">
+        <v>941</v>
+      </c>
+      <c r="H234"/>
+      <c r="I234"/>
+      <c r="J234" t="s">
+        <v>232</v>
+      </c>
+      <c r="K234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235"/>
+      <c r="B235" t="s">
+        <v>942</v>
+      </c>
+      <c r="C235" t="s">
+        <v>943</v>
+      </c>
+      <c r="D235" t="s">
+        <v>202</v>
+      </c>
+      <c r="E235"/>
+      <c r="F235" t="s">
+        <v>178</v>
+      </c>
+      <c r="G235" t="s">
+        <v>944</v>
+      </c>
+      <c r="H235"/>
+      <c r="I235"/>
+      <c r="J235" t="s">
+        <v>945</v>
+      </c>
+      <c r="K235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236"/>
+      <c r="B236" t="s">
+        <v>946</v>
+      </c>
+      <c r="C236" t="s">
+        <v>947</v>
+      </c>
+      <c r="D236" t="s">
+        <v>457</v>
+      </c>
+      <c r="E236"/>
+      <c r="F236" t="s">
+        <v>61</v>
+      </c>
+      <c r="G236" t="s">
+        <v>948</v>
+      </c>
+      <c r="H236"/>
+      <c r="I236"/>
+      <c r="J236" t="s">
+        <v>949</v>
+      </c>
+      <c r="K236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237"/>
+      <c r="B237" t="s">
+        <v>950</v>
+      </c>
+      <c r="C237" t="s">
+        <v>951</v>
+      </c>
+      <c r="D237" t="s">
+        <v>147</v>
+      </c>
+      <c r="E237"/>
+      <c r="F237" t="s">
+        <v>214</v>
+      </c>
+      <c r="G237" t="s">
+        <v>952</v>
+      </c>
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237" t="s">
+        <v>216</v>
+      </c>
+      <c r="K237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238"/>
+      <c r="B238" t="s">
+        <v>953</v>
+      </c>
+      <c r="C238" t="s">
+        <v>954</v>
+      </c>
+      <c r="D238" t="s">
+        <v>955</v>
+      </c>
+      <c r="E238"/>
+      <c r="F238" t="s">
+        <v>61</v>
+      </c>
+      <c r="G238" t="s">
+        <v>956</v>
+      </c>
+      <c r="H238"/>
+      <c r="I238"/>
+      <c r="J238" t="s">
+        <v>370</v>
+      </c>
+      <c r="K238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239"/>
+      <c r="B239" t="s">
+        <v>957</v>
+      </c>
+      <c r="C239" t="s">
+        <v>958</v>
+      </c>
+      <c r="D239" t="s">
+        <v>959</v>
+      </c>
+      <c r="E239"/>
+      <c r="F239" t="s">
+        <v>67</v>
+      </c>
+      <c r="G239" t="s">
+        <v>960</v>
+      </c>
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239" t="s">
+        <v>18</v>
+      </c>
+      <c r="K239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240"/>
+      <c r="B240" t="s">
+        <v>961</v>
+      </c>
+      <c r="C240" t="s">
+        <v>962</v>
+      </c>
+      <c r="D240" t="s">
+        <v>219</v>
+      </c>
+      <c r="E240"/>
+      <c r="F240" t="s">
+        <v>167</v>
+      </c>
+      <c r="G240" t="s">
+        <v>963</v>
+      </c>
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240" t="s">
+        <v>964</v>
+      </c>
+      <c r="K240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241"/>
+      <c r="B241" t="s">
+        <v>965</v>
+      </c>
+      <c r="C241" t="s">
+        <v>966</v>
+      </c>
+      <c r="D241" t="s">
+        <v>870</v>
+      </c>
+      <c r="E241"/>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>967</v>
+      </c>
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241" t="s">
+        <v>968</v>
+      </c>
+      <c r="K241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242"/>
+      <c r="B242" t="s">
+        <v>969</v>
+      </c>
+      <c r="C242" t="s">
+        <v>970</v>
+      </c>
+      <c r="D242" t="s">
+        <v>870</v>
+      </c>
+      <c r="E242"/>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" t="s">
+        <v>971</v>
+      </c>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242" t="s">
+        <v>972</v>
+      </c>
+      <c r="K242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243"/>
+      <c r="B243" t="s">
+        <v>973</v>
+      </c>
+      <c r="C243" t="s">
+        <v>974</v>
+      </c>
+      <c r="D243" t="s">
+        <v>219</v>
+      </c>
+      <c r="E243"/>
+      <c r="F243" t="s">
+        <v>167</v>
+      </c>
+      <c r="G243" t="s">
+        <v>975</v>
+      </c>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243" t="s">
+        <v>976</v>
+      </c>
+      <c r="K243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244"/>
+      <c r="B244" t="s">
+        <v>977</v>
+      </c>
+      <c r="C244" t="s">
+        <v>974</v>
+      </c>
+      <c r="D244" t="s">
+        <v>219</v>
+      </c>
+      <c r="E244"/>
+      <c r="F244" t="s">
+        <v>167</v>
+      </c>
+      <c r="G244" t="s">
+        <v>975</v>
+      </c>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244" t="s">
+        <v>978</v>
+      </c>
+      <c r="K244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245"/>
+      <c r="B245" t="s">
+        <v>979</v>
+      </c>
+      <c r="C245" t="s">
+        <v>980</v>
+      </c>
+      <c r="D245" t="s">
+        <v>981</v>
+      </c>
+      <c r="E245"/>
+      <c r="F245" t="s">
+        <v>78</v>
+      </c>
+      <c r="G245" t="s">
+        <v>982</v>
+      </c>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245" t="s">
+        <v>983</v>
+      </c>
+      <c r="K245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246"/>
+      <c r="B246" t="s">
+        <v>984</v>
+      </c>
+      <c r="C246" t="s">
+        <v>985</v>
+      </c>
+      <c r="D246" t="s">
+        <v>580</v>
+      </c>
+      <c r="E246"/>
+      <c r="F246" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" t="s">
+        <v>986</v>
+      </c>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246" t="s">
+        <v>987</v>
+      </c>
+      <c r="K246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247"/>
+      <c r="B247" t="s">
+        <v>988</v>
+      </c>
+      <c r="C247" t="s">
+        <v>985</v>
+      </c>
+      <c r="D247" t="s">
+        <v>580</v>
+      </c>
+      <c r="E247"/>
+      <c r="F247" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" t="s">
+        <v>989</v>
+      </c>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247" t="s">
+        <v>987</v>
+      </c>
+      <c r="K247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248"/>
+      <c r="B248" t="s">
+        <v>990</v>
+      </c>
+      <c r="C248" t="s">
+        <v>985</v>
+      </c>
+      <c r="D248" t="s">
+        <v>255</v>
+      </c>
+      <c r="E248"/>
+      <c r="F248" t="s">
+        <v>3</v>
+      </c>
+      <c r="G248" t="s">
+        <v>991</v>
+      </c>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248" t="s">
+        <v>992</v>
+      </c>
+      <c r="K248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249"/>
+      <c r="B249" t="s">
+        <v>993</v>
+      </c>
+      <c r="C249" t="s">
+        <v>985</v>
+      </c>
+      <c r="D249" t="s">
+        <v>580</v>
+      </c>
+      <c r="E249"/>
+      <c r="F249" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" t="s">
+        <v>994</v>
+      </c>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249" t="s">
+        <v>987</v>
+      </c>
+      <c r="K249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250"/>
+      <c r="B250" t="s">
+        <v>995</v>
+      </c>
+      <c r="C250" t="s">
+        <v>996</v>
+      </c>
+      <c r="D250" t="s">
+        <v>997</v>
+      </c>
+      <c r="E250"/>
+      <c r="F250" t="s">
+        <v>140</v>
+      </c>
+      <c r="G250" t="s">
+        <v>998</v>
+      </c>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250" t="s">
+        <v>34</v>
+      </c>
+      <c r="K250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251"/>
+      <c r="B251" t="s">
+        <v>999</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E251"/>
+      <c r="F251" t="s">
+        <v>241</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252"/>
+      <c r="B252" t="s">
+        <v>638</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D252" t="s">
+        <v>770</v>
+      </c>
+      <c r="E252"/>
+      <c r="F252" t="s">
+        <v>266</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252" t="s">
+        <v>34</v>
+      </c>
+      <c r="K252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253"/>
+      <c r="B253" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E253"/>
+      <c r="F253" t="s">
+        <v>396</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253" t="s">
+        <v>5</v>
+      </c>
+      <c r="K253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254"/>
+      <c r="B254" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E254"/>
+      <c r="F254" t="s">
+        <v>140</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254" t="s">
+        <v>532</v>
+      </c>
+      <c r="K254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255"/>
+      <c r="B255" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D255" t="s">
+        <v>213</v>
+      </c>
+      <c r="E255"/>
+      <c r="F255" t="s">
+        <v>396</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255" t="s">
+        <v>6</v>
+      </c>
+      <c r="K255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256"/>
+      <c r="B256" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E256"/>
+      <c r="F256" t="s">
+        <v>167</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256" t="s">
+        <v>532</v>
+      </c>
+      <c r="K256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257"/>
+      <c r="B257" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E257"/>
+      <c r="F257" t="s">
+        <v>266</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257" t="s">
+        <v>34</v>
+      </c>
+      <c r="K257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258"/>
+      <c r="B258" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D258" t="s">
+        <v>335</v>
+      </c>
+      <c r="E258"/>
+      <c r="F258" t="s">
+        <v>56</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258" t="s">
+        <v>336</v>
+      </c>
+      <c r="K258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259"/>
+      <c r="B259" t="s">
+        <v>638</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D259" t="s">
+        <v>395</v>
+      </c>
+      <c r="E259"/>
+      <c r="F259" t="s">
+        <v>266</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259" t="s">
+        <v>245</v>
+      </c>
+      <c r="K259" t="s">
         <v>6</v>
       </c>
     </row>
